--- a/biology/Mycologie/Lactarius/Lactarius.xlsx
+++ b/biology/Mycologie/Lactarius/Lactarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactarius
-Les champignons du genre Lactarius (les lactaires) sont des basidiomycètes[1] de la famille des Russulaceae[2], présentant des sporophores[3] cassants, ayant la particularité d’exsuder un lait plus ou moins abondant (latex) lorsqu’ils sont blessés ou coupés. Ce sont des espèces agaricoïdes (chapeau et stipe présents, hyménium externe lamellé), sans anneau ni volve sur le stipe.
+Les champignons du genre Lactarius (les lactaires) sont des basidiomycètes de la famille des Russulaceae, présentant des sporophores cassants, ayant la particularité d’exsuder un lait plus ou moins abondant (latex) lorsqu’ils sont blessés ou coupés. Ce sont des espèces agaricoïdes (chapeau et stipe présents, hyménium externe lamellé), sans anneau ni volve sur le stipe.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lactaires sont reconnaissables à trois caractères faciles à observer : 
 texture grenue (= chair friable et cassant net comme de la craie). Champignon “agaricoïde” : possédant un pied (stipe) et des lames (hyménophore lamellé) rayonnantes sous le chapeau ;
 exsudant ou laissant s'écouler du latex (ou lait) à la cassure de la chair, et surtout des lames ;
-et surtout des lames plus ou moins décurrentes (qui se prolongent sur le stipe)[4],[5].
-Certains lactaires peuvent bioconcentrer des radionucléides tels que le césium-137 des retombées de la catastrophe de Tchernobyl, notamment dans leur chapeau[6].
+et surtout des lames plus ou moins décurrentes (qui se prolongent sur le stipe),.
+Certains lactaires peuvent bioconcentrer des radionucléides tels que le césium-137 des retombées de la catastrophe de Tchernobyl, notamment dans leur chapeau.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Toxicologie, écotoxicologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les champignons, les lactaires peuvent bioaccumuler des métaux lourds et des métalloïdes toxiques, dont notamment le mercure[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les champignons, les lactaires peuvent bioaccumuler des métaux lourds et des métalloïdes toxiques, dont notamment le mercure.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, une étude phylogénétique rétablit le sous-genre Lactifluus[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, une étude phylogénétique rétablit le sous-genre Lactifluus.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On en compte des centaines d'espèces dans le monde, dont, selon Index Fungorum                                      (10 octobre 2020)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On en compte des centaines d'espèces dans le monde, dont, selon Index Fungorum                                      (10 octobre 2020) :
 Lactarius abbotanus K. Das &amp; J.R. Sharma 2003
 Lactarius abieticola X.H. Wang 2016
 Lactarius acatlanensis Bandala, Montoya &amp; A. Ramos 2016
@@ -1108,15 +1128,57 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Groupe des Lactarius deliciosus (section Dapetes)
+          <t>Groupe des Lactarius deliciosus (section Dapetes)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Lactarius deliciosus.
 			Lactarius deterrimus.
 			Lactarius salmonicolor.
-Autres espèces
-			Lactarius necator (très bioaccumulateur de mercure[10]).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lactarius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lactarius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sélection d'espèces européennes notoires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Lactarius necator (très bioaccumulateur de mercure).
 			Lactarius chrysorreus.
 			Lactarius decipiens.
-			Lactarius rufus, un des champignons les plus « chauds »[11].
+			Lactarius rufus, un des champignons les plus « chauds ».
 			Lactarius torminosus.
 </t>
         </is>
